--- a/municipal/სასტუმროები/სტუმრები/სამცხე-ჯავახეთი/ახალციხე.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/სამცხე-ჯავახეთი/ახალციხე.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\სამცხე - ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\სამცხე - ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>მათ შორის: ევროკავშირის ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ახალციხის მუნიციპალიტეტი</t>
-  </si>
-  <si>
     <t>საქართველოდან</t>
   </si>
   <si>
@@ -70,6 +67,54 @@
   <si>
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ახალციხის მუნიციპალიტეტში</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +205,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -231,7 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -328,23 +387,26 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -628,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM87"/>
+  <dimension ref="A1:BM88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -646,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:65" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -713,66 +775,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
     </row>
     <row r="3" spans="1:65" s="37" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -850,14 +912,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:65" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2010</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -936,7 +998,7 @@
     </row>
     <row r="6" spans="1:65" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="34">
         <v>6711</v>
@@ -956,7 +1018,7 @@
     </row>
     <row r="7" spans="1:65" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="34">
         <v>1496</v>
@@ -996,7 +1058,7 @@
     </row>
     <row r="9" spans="1:65" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="13">
         <v>167</v>
@@ -1016,7 +1078,7 @@
     </row>
     <row r="10" spans="1:65" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="17">
         <v>942</v>
@@ -1035,14 +1097,14 @@
       </c>
     </row>
     <row r="11" spans="1:65" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
+      <c r="A11" s="40">
         <v>2011</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1130,7 +1192,7 @@
     </row>
     <row r="13" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="34">
         <v>5965</v>
@@ -1159,7 +1221,7 @@
     </row>
     <row r="14" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="34">
         <v>1228</v>
@@ -1217,7 +1279,7 @@
     </row>
     <row r="16" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13">
         <v>159</v>
@@ -1246,7 +1308,7 @@
     </row>
     <row r="17" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="17">
         <v>552</v>
@@ -1274,14 +1336,14 @@
       <c r="BM17" s="28"/>
     </row>
     <row r="18" spans="1:65" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42">
+      <c r="A18" s="40">
         <v>2012</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -1360,7 +1422,7 @@
     </row>
     <row r="20" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="34">
         <v>8164</v>
@@ -1380,7 +1442,7 @@
     </row>
     <row r="21" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="34">
         <v>3640</v>
@@ -1420,7 +1482,7 @@
     </row>
     <row r="23" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="34">
         <v>685</v>
@@ -1440,7 +1502,7 @@
     </row>
     <row r="24" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="36">
         <v>1745</v>
@@ -1459,14 +1521,14 @@
       </c>
     </row>
     <row r="25" spans="1:65" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42">
+      <c r="A25" s="40">
         <v>2013</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -1545,7 +1607,7 @@
     </row>
     <row r="27" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="34">
         <v>10308</v>
@@ -1565,7 +1627,7 @@
     </row>
     <row r="28" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="34">
         <v>11925</v>
@@ -1605,7 +1667,7 @@
     </row>
     <row r="30" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="34">
         <v>1866</v>
@@ -1625,7 +1687,7 @@
     </row>
     <row r="31" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="36">
         <v>6648</v>
@@ -1644,14 +1706,14 @@
       </c>
     </row>
     <row r="32" spans="1:65" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42">
+      <c r="A32" s="40">
         <v>2014</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
       <c r="AU32" s="23"/>
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
@@ -1690,7 +1752,7 @@
     </row>
     <row r="34" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="34">
         <v>9050</v>
@@ -1710,7 +1772,7 @@
     </row>
     <row r="35" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="34">
         <v>11568</v>
@@ -1750,7 +1812,7 @@
     </row>
     <row r="37" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="34">
         <v>1163</v>
@@ -1770,7 +1832,7 @@
     </row>
     <row r="38" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="36">
         <v>6378</v>
@@ -1789,14 +1851,14 @@
       </c>
     </row>
     <row r="39" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42">
+      <c r="A39" s="40">
         <v>2015</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -1900,7 +1962,7 @@
     </row>
     <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="34">
         <v>14876</v>
@@ -1920,7 +1982,7 @@
     </row>
     <row r="42" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="34">
         <v>11321</v>
@@ -1960,7 +2022,7 @@
     </row>
     <row r="44" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="34">
         <v>2375</v>
@@ -1980,7 +2042,7 @@
     </row>
     <row r="45" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="36">
         <v>4782</v>
@@ -1999,14 +2061,14 @@
       </c>
     </row>
     <row r="46" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42">
+      <c r="A46" s="40">
         <v>2016</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
@@ -2085,7 +2147,7 @@
     </row>
     <row r="48" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="34">
         <v>21695</v>
@@ -2105,7 +2167,7 @@
     </row>
     <row r="49" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="34">
         <v>17225</v>
@@ -2145,7 +2207,7 @@
     </row>
     <row r="51" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="34">
         <v>5896</v>
@@ -2165,7 +2227,7 @@
     </row>
     <row r="52" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="36">
         <v>6506</v>
@@ -2184,14 +2246,14 @@
       </c>
     </row>
     <row r="53" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="42">
+      <c r="A53" s="40">
         <v>2017</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
@@ -2270,7 +2332,7 @@
     </row>
     <row r="55" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="34">
         <v>26847</v>
@@ -2290,7 +2352,7 @@
     </row>
     <row r="56" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="34">
         <v>15480</v>
@@ -2330,7 +2392,7 @@
     </row>
     <row r="58" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="34">
         <v>1817</v>
@@ -2350,7 +2412,7 @@
     </row>
     <row r="59" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="36">
         <v>8788</v>
@@ -2369,14 +2431,14 @@
       </c>
     </row>
     <row r="60" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42">
+      <c r="A60" s="40">
         <v>2018</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
@@ -2455,7 +2517,7 @@
     </row>
     <row r="62" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="34">
         <v>17987</v>
@@ -2475,7 +2537,7 @@
     </row>
     <row r="63" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="34">
         <v>19992</v>
@@ -2515,7 +2577,7 @@
     </row>
     <row r="65" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="34">
         <v>4413</v>
@@ -2535,7 +2597,7 @@
     </row>
     <row r="66" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="36">
         <v>5641</v>
@@ -2554,14 +2616,14 @@
       </c>
     </row>
     <row r="67" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="42">
+      <c r="A67" s="40">
         <v>2019</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
@@ -2640,7 +2702,7 @@
     </row>
     <row r="69" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="34">
         <v>16129</v>
@@ -2660,7 +2722,7 @@
     </row>
     <row r="70" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="34">
         <v>21332</v>
@@ -2700,7 +2762,7 @@
     </row>
     <row r="72" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="34">
         <v>4172</v>
@@ -2720,7 +2782,7 @@
     </row>
     <row r="73" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="36">
         <v>6376</v>
@@ -2739,14 +2801,14 @@
       </c>
     </row>
     <row r="74" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="42">
+      <c r="A74" s="40">
         <v>2020</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -2825,7 +2887,7 @@
     </row>
     <row r="76" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="34">
         <v>7223</v>
@@ -2845,7 +2907,7 @@
     </row>
     <row r="77" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="34">
         <v>734</v>
@@ -2885,7 +2947,7 @@
     </row>
     <row r="79" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="34">
         <v>352</v>
@@ -2905,7 +2967,7 @@
     </row>
     <row r="80" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="17">
         <v>273</v>
@@ -2924,14 +2986,14 @@
       </c>
     </row>
     <row r="81" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="42">
+      <c r="A81" s="40">
         <v>2021</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
@@ -3010,7 +3072,7 @@
     </row>
     <row r="83" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" s="34">
         <v>14928</v>
@@ -3030,7 +3092,7 @@
     </row>
     <row r="84" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="34">
         <v>4869</v>
@@ -3070,7 +3132,7 @@
     </row>
     <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="34">
         <v>316</v>
@@ -3090,7 +3152,7 @@
     </row>
     <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" s="36">
         <v>3219</v>
@@ -3108,8 +3170,19 @@
         <v>2053</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="L2:P2"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A32:F32"/>
@@ -3118,6 +3191,9 @@
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A11:F11"/>
@@ -3131,9 +3207,6 @@
     <mergeCell ref="AZ2:BD2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
